--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olysenko/PycharmProjects/LeetCodeSolutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C0FEF-96AF-4C4C-9029-AC8D937C1F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03B69E8-774A-4D42-BBB8-D2AE16D374B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{E48E0D81-DF4C-8D43-A7EB-747C62DEF9CF}"/>
+    <workbookView xWindow="2680" yWindow="2880" windowWidth="34780" windowHeight="16620" xr2:uid="{E48E0D81-DF4C-8D43-A7EB-747C62DEF9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -101,6 +101,221 @@
   </si>
   <si>
     <t>Init left at 0, right at 1, max_profit with 0. Iterate through array and check if price[r] &gt; price[l], then check if it is more than current max_profit. In case if price[r] &lt;= price[l], move left pointer to right position. And increment right to 1 on each iteration.</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>Given a string s, find the length of the longest 
+substring without repeating characters.</t>
+  </si>
+  <si>
+    <t>Init left and right at 0, create set to track unique chars. Iterate through string incrementing right pointer each iteration. First check if char is in the set. If so, remove nums[left] from set incrementing left pointer until we see that nums[right] is not in set. Add nums[right] to set and compare substring lenght (right - left + 1) to current max substring length.</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-size-subarray-sum/</t>
+  </si>
+  <si>
+    <t>Given an array of positive integers nums and a positive integer target, return the minimal length of a subarray whose sum is greater than or equal to target. If there is no such subarray, return 0 instead.</t>
+  </si>
+  <si>
+    <t>Init left and right at index 0. set min_subarray_len to nums.length + 1 or Integer.MAX_VALUE for example. Iterate through nums calculating subarray sum. If this sum is.&gt;= target, then calculate new min_subarray_len and decrement subarray size by incrementing left pointer until subarray sum is &gt;= target. Return min_subarray_len in case if it's not initial value or 0 otherwise.</t>
+  </si>
+  <si>
+    <t>424. Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/description/</t>
+  </si>
+  <si>
+    <t>You are given a string s and an integer k. You can choose any character of the string and change it to any other uppercase English character. You can perform this operation at most k times.
+Return the length of the longest substring containing the same letter you can get after performing the above operations.</t>
+  </si>
+  <si>
+    <t>Init left and right pointers at 0, char_map and max_char_var. Iterate through string incrementing right pointer each loop. Add char to char map and calculate max_char_var to know which char is the most frequent in substring. Then check if substring lenght minus max_char_var &gt; k, then increment left pointer and remove char from the map. Compare substring lenght to current substring lenght calculated at the moment.</t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-in-string/</t>
+  </si>
+  <si>
+    <t>Given two strings s1 and s2, return true if s2 contains a permutation of s1, or false otherwise.
+In other words, return true if one of s1's permutations is the substring of s2.</t>
+  </si>
+  <si>
+    <t>Init left and right indexes at 0. Init 2 maps for s1 and s2. Initiate s1 map with symbol to it's count. Iterate through s2 string. If s1 map lengh &gt;= s2 map length, then remove s2[left] char from map, increment left pointer. In case if s1 map len &gt; s2 map len, increment right pointer and add s2[right] symbol to s2 map. In case if s1 map len == s2 map len, compare maps if they are equal, then we can return true. Alternative solution is to support 2 arrays of size 26. On each iteration we can calculate matching cases like if count for each symbol in s1 equals to s2 count. If matches count == 26, return true.</t>
+  </si>
+  <si>
+    <t>Two pointers</t>
+  </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an integer array nums sorted in non-decreasing order, remove the duplicates in-place such that each unique element appears only once. The relative order of the elements should be kept the same. Then return the number of unique elements in nums.
+Consider the number of unique elements of nums to be k, to get accepted, you need to do the following things:
+Change the array nums such that the first k elements of nums contain the unique elements in the order they were present in nums initially. The remaining elements of nums are not important as well as the size of nums.
+Return k.
+Custom Judge:
+The judge will test your solution with the following code:
+int[] nums = [...]; // Input array
+int[] expectedNums = [...]; // The expected answer with correct length
+int k = removeDuplicates(nums); // Calls your implementation
+assert k == expectedNums.length;
+for (int i = 0; i &lt; k; i++) {
+    assert nums[i] == expectedNums[i];
+}
+If all assertions pass, then your solution will be accepted.
+</t>
+  </si>
+  <si>
+    <t>Init first pointer at 0 (l) another at 1 (r). First pointer will be tracking the order of new array. Iterate through array and if nums[l] != nums[r] set nums[l] = nums[r] and increment l. And return l + 1 at the end to show new array length.</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array/</t>
+  </si>
+  <si>
+    <t>You are given two integer arrays nums1 and nums2, sorted in non-decreasing order, and two integers m and n, representing the number of elements in nums1 and nums2 respectively.
+Merge nums1 and nums2 into a single array sorted in non-decreasing order.
+The final sorted array should not be returned by the function, but instead be stored inside the array nums1. To accommodate this, nums1 has a length of m + n, where the first m elements denote the elements that should be merged, and the last n elements are set to 0 and should be ignored. nums2 has a length of n.</t>
+  </si>
+  <si>
+    <t>Start from the end of nums1 array which is bigger. So, first pointer starts from len - 1, iterate from the end of arrays to beginning - if elemet from first array &gt; element from second set it to first array element place. Decrement first and second array indexes. At the end first or second part of the array might be left not completely filled, no need to compare the elements, just fill the rest f the array with values.</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/description/</t>
+  </si>
+  <si>
+    <t>A phrase is a palindrome if, after converting all uppercase letters into lowercase letters and removing all non-alphanumeric characters, it reads the same forward and backward. Alphanumeric characters include letters and numbers.
+Given a string s, return true if it is a palindrome, or false otherwise.</t>
+  </si>
+  <si>
+    <t>Initiate pointer 1 on 0 and pointer 2 at string len - 1. If char at pointer index is not alphanumeric, increment or decrement pointer. If not - compare chars at pointer positions. If they do not match, immidiately return false, otherwise continue until pointers intersect.</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/</t>
+  </si>
+  <si>
+    <t>Given an integer array nums, move all 0's to the end of it while maintaining the relative order of the non-zero elements.
+Note that you must do this in-place without making a copy of the array.</t>
+  </si>
+  <si>
+    <t>Init left pointer at 0 right at 1 and iterate through array incrementing right pointer each iteration. If num[left] == 0 and num[right] != 0, then swap elements. And if nums[left] != 0 increment left pointer</t>
+  </si>
+  <si>
+    <t>344. Reverse String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>Write a function that reverses a string. The input string is given as an array of characters s.
+You must do this by modifying the input array in-place with O(1) extra memory.</t>
+  </si>
+  <si>
+    <t>Init left pointer at 0 and right pointer at len - 1. Swap elements until left and right pointers intersect.</t>
+  </si>
+  <si>
+    <t>680. Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-ii/</t>
+  </si>
+  <si>
+    <t>Given a string s, return true if the s can be palindrome after deleting at most one character from it.</t>
+  </si>
+  <si>
+    <t>Init left pointer at 0 and right pointer at len - 1. Compare chars at indexes incrementing left pointer and decrementing right pointer. Make additional method accepting retry flag. In case chars do not match, branch 2 recruisive calls one with moving left index and another moving right index passing retry flag=false. Continue until right &gt; left</t>
+  </si>
+  <si>
+    <t>1768. Merge Strings Alternately</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-strings-alternately/</t>
+  </si>
+  <si>
+    <t>You are given two strings word1 and word2. Merge the strings by adding letters in alternating order, starting with word1. If a string is longer than the other, append the additional letters onto the end of the merged string.
+Return the merged string.</t>
+  </si>
+  <si>
+    <t>Init 2 pointers at 0. While string lengths are not equal, add char from one string and then another string. When done, append result with the rest of the string that is left.</t>
+  </si>
+  <si>
+    <t>1984. Minimum Difference Between Highest and Lowest of K Scores</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-difference-between-highest-and-lowest-of-k-scores/</t>
+  </si>
+  <si>
+    <t>You are given a 0-indexed integer array nums, where nums[i] represents the score of the ith student. You are also given an integer k.
+Pick the scores of any k students from the array so that the difference between the highest and the lowest of the k scores is minimized.
+Return the minimum possible difference.</t>
+  </si>
+  <si>
+    <t>First sort the array so that in any case we have O(N log N) complexity. Initiating left pointer to 0 and right pointer to k - 1. And moving from the beginning to the end of the array, calculating the minimum on each step</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>You are given an integer array height of length n. There are n vertical lines drawn such that the two endpoints of the ith line are (i, 0) and (i, height[i]).
+Find two lines that together with the x-axis form a container, such that the container contains the most water.
+Return the maximum amount of water a container can store.
+Notice that you may not slant the container.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiating left pointer at 0, right pointer at len - 1. Iterate calculating min_height multiplying it to (right - left) so that we get area. If height[left] &gt; height[right] decrement right pointer or increment right pointer instead. Do until pointers intersect calculating max_area on each iteration. </t>
+  </si>
+  <si>
+    <t>167. Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
+  </si>
+  <si>
+    <t>Given a 1-indexed array of integers numbers that is already sorted in non-decreasing order, find two numbers such that they add up to a specific target number. Let these two numbers be numbers[index1] and numbers[index2] where 1 &lt;= index1 &lt; index2 &lt; numbers.length.
+Return the indices of the two numbers, index1 and index2, added by one as an integer array [index1, index2] of length 2.
+The tests are generated such that there is exactly one solution. You may not use the same element twice.
+Your solution must use only constant extra space.</t>
+  </si>
+  <si>
+    <t>Initiating left pointer at 0, right pointer at len - 1. Calculate sum of nums[left] + nums[right]. If sum &gt; target, decrement right pointer, otherwise increment left pointer. If sum == target return indexes.</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>Given an integer array nums, return all the triplets [nums[i], nums[j], nums[k]] such that i != j, i != k, and j != k, and nums[i] + nums[j] + nums[k] == 0.
+Notice that the solution set must not contain duplicate triplets.</t>
+  </si>
+  <si>
+    <t>Here array has to be first sorted. Skip duplicates like if nums[i] == nums[I - 1]. Now when stopped, continue with defining left pointer to i+1 and right to len - 1. Calculate sum of nums[i] + nums[left] + nums[right]. If sum &gt; 0 decrement right pointer, if sum &lt; 0 increment left pointer. Otherwise if sum == 0, add this tripple to result list.</t>
   </si>
 </sst>
 </file>
@@ -483,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7927-D64E-4942-B623-8CF8E5D25D01}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,11 +793,326 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{1B0C7E38-71FA-1D4A-BB95-A8ED3FDE4C5C}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{BE420026-68A8-7F4D-898B-F5A4ADA9B91B}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{A0CD42E4-378C-8349-8996-8249041D135D}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{0D0A9237-44EA-A347-8E77-4E2FF5DAF415}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{E4157E32-3FFD-FA4E-BDE0-72B34FD5BD63}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{59463C33-7B7E-DC45-8C0D-EFD2CED3B927}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{C3146142-02B1-7543-88D9-DC8C3BCB815B}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{C59CFAB4-77DA-FD48-8588-1C6F88985710}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{7B116CD0-337A-2D46-985F-D72C59EAF15B}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{D452F610-F677-1349-A56C-771D022C0B0B}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{CD56285A-FDC7-9542-ADB3-E4AC0C109564}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{6FC8E618-F232-F242-A9DF-0C400F3EF979}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{9EF1A5F0-DA7F-624F-963E-4C7A01A00B51}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{2A50ABBA-2D4B-CB41-9548-F01A9D3B534C}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{02F84970-F294-394D-A96F-4137EAFBAED8}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{D37CA401-E89F-B346-B38D-E387CCE7B511}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{2B19E9D9-4DED-AF46-9ED0-B0F8DC7D70F4}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{AACA9B91-44D8-8445-8977-32FD68D43430}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olysenko/PycharmProjects/LeetCodeSolutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03B69E8-774A-4D42-BBB8-D2AE16D374B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E0A685-0034-4244-9BB1-F68B7BF0BD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="2880" windowWidth="34780" windowHeight="16620" xr2:uid="{E48E0D81-DF4C-8D43-A7EB-747C62DEF9CF}"/>
+    <workbookView xWindow="-36260" yWindow="2740" windowWidth="34780" windowHeight="16620" xr2:uid="{E48E0D81-DF4C-8D43-A7EB-747C62DEF9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -316,6 +316,85 @@
   </si>
   <si>
     <t>Here array has to be first sorted. Skip duplicates like if nums[i] == nums[I - 1]. Now when stopped, continue with defining left pointer to i+1 and right to len - 1. Calculate sum of nums[i] + nums[left] + nums[right]. If sum &gt; 0 decrement right pointer, if sum &lt; 0 increment left pointer. Otherwise if sum == 0, add this tripple to result list.</t>
+  </si>
+  <si>
+    <t>18. 4Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/4sum/</t>
+  </si>
+  <si>
+    <t>Given an array nums of n integers, return an array of all the unique quadruplets [nums[a], nums[b], nums[c], nums[d]] such that:
+0 &lt;= a, b, c, d &lt; n
+a, b, c, and d are distinct.
+nums[a] + nums[b] + nums[c] + nums[d] == target
+You may return the answer in any order.</t>
+  </si>
+  <si>
+    <t>Array has to be sorted. There are going to be 2 for loops and one while loop for 2 pointer. We skip duplicates by checking if nums[i] == nums[I - 1]. But also we need to check if it is not the first index like I &gt; 0. Same for second embedded for loop like j &gt; i + 1 and nums[j] == nums[j + 1]: continue. Then we get to 2 pointer logic, if sum &gt; target right - 1, else if  sum &lt; target: left + 1. Otherwise append quad to result array. But still we need to increment left pointer (or decrement right one) while nums[l] == nums[l - 1] but also check if we are not out of bounds.</t>
+  </si>
+  <si>
+    <t>80. Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/</t>
+  </si>
+  <si>
+    <t>Given an integer array nums sorted in non-decreasing order, remove some duplicates in-place such that each unique element appears at most twice. The relative order of the elements should be kept the same.
+Since it is impossible to change the length of the array in some languages, you must instead have the result be placed in the first part of the array nums. More formally, if there are k elements after removing the duplicates, then the first k elements of nums should hold the final result. It does not matter what you leave beyond the first k elements.
+Return k after placing the final result in the first k slots of nums.
+Do not allocate extra space for another array. You must do this by modifying the input array in-place with O(1) extra memory.
+Custom Judge:
+The judge will test your solution with the following code:
+int[] nums = [...]; // Input array
+int[] expectedNums = [...]; // The expected answer with correct length
+int k = removeDuplicates(nums); // Calls your implementation
+assert k == expectedNums.length;
+for (int i = 0; i &lt; k; i++) {
+    assert nums[i] == expectedNums[i];
+}
+If all assertions pass, then your solution will be accepted.</t>
+  </si>
+  <si>
+    <t>Init first pointer at 0 (l) another at 1 (r). First pointer will be tracking the order of new array. Iterate through array and if nums[l] != nums[r] set nums[l] = nums[r] and increment l. Also have count var and check if nums[l] == nums[r] and count &lt; 1 then increment left pointer, increment also count var so that if we have another duplicate we will not get to this branch. And return l + 1 at the end to show new array length.</t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/</t>
+  </si>
+  <si>
+    <t>Given an integer array nums, rotate the array to the right by k steps, where k is non-negative.
+Example 1:
+Input: nums = [1,2,3,4,5,6,7], k = 3
+Output: [5,6,7,1,2,3,4]
+Explanation:
+rotate 1 steps to the right: [7,1,2,3,4,5,6]
+rotate 2 steps to the right: [6,7,1,2,3,4,5]
+rotate 3 steps to the right: [5,6,7,1,2,3,4]
+Example 2:
+Input: nums = [-1,-100,3,99], k = 2
+Output: [3,99,-1,-100]
+Explanation: 
+rotate 1 steps to the right: [99,-1,-100,3]
+rotate 2 steps to the right: [3,99,-1,-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define helper swap method accepting left and right indexes, method will just swap passed range of the array. First reverse all array. Aftwer that reverse 0--k-1 range back. After that reverse k--len-1 range. </t>
+  </si>
+  <si>
+    <t>881. Boats to Save People</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/boats-to-save-people/</t>
+  </si>
+  <si>
+    <t>You are given an array people where people[i] is the weight of the ith person, and an infinite number of boats where each boat can carry a maximum weight of limit. Each boat carries at most two people at the same time, provided the sum of the weight of those people is at most limit.
+Return the minimum number of boats to carry every given person.</t>
+  </si>
+  <si>
+    <t>First we sort the array (otherwise the solution will be n^2, and thus we limit complexity to n*log n). Init left to 0 and right to len -1. Then go into loop while l &lt;= r. If people[l] + people[r] &lt;= limit, then we increment left pointer by 1. Each iteration we also decrement right pointer and incrementing count by 1. Return count.</t>
   </si>
 </sst>
 </file>
@@ -698,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7927-D64E-4942-B623-8CF8E5D25D01}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,6 +1170,86 @@
       </c>
       <c r="F19" s="5" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="340" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1113,6 +1272,10 @@
     <hyperlink ref="D17" r:id="rId16" xr:uid="{D37CA401-E89F-B346-B38D-E387CCE7B511}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{2B19E9D9-4DED-AF46-9ED0-B0F8DC7D70F4}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{AACA9B91-44D8-8445-8977-32FD68D43430}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{3E7B381E-B3F9-5E4D-88B1-F9BA68D76BC5}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{54322D38-E30A-9946-BBA2-C800FD45034E}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{2F4B9221-58F2-DE44-8CC7-7F3885DFA603}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{32FDF172-D10C-CF47-8E47-FD32FB3B7005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
